--- a/biology/Botanique/Orchis_rouge_sang/Orchis_rouge_sang.xlsx
+++ b/biology/Botanique/Orchis_rouge_sang/Orchis_rouge_sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylorhiza cruenta
 L'Orchis rouge sang (Dactylorhiza cruenta) est une espèce de plante vivace de la famille des Orchidaceae. Elle est souvent considérée comme une sous-espèce de Dactylorhiza incarnata. Leur principale différence est la présence sur la première de nombreuses taches noires sur les deux faces des feuilles qui sont plus larges et la tige plus grosse
@@ -514,7 +526,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans les régions calcaires et humides en Europe centrale et orientale. On peut la trouver dans les Alpes en France.
 </t>
